--- a/TABLAS.xlsx
+++ b/TABLAS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion lastEdited="4" lowestEdited="4" rupBuild="3820"/>
   <workbookPr date1904="0"/>
   <bookViews>
-    <workbookView activeTab="0" windowWidth="13460" windowHeight="5180"/>
+    <workbookView activeTab="3" windowWidth="17560" windowHeight="7490"/>
   </bookViews>
   <sheets>
     <sheet name="utils_package" sheetId="1" r:id="rId1"/>
@@ -28,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4" count="4">
-  <si>
-    <t>pkg_name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3" count="3">
   <si>
     <t>created_at</t>
   </si>
@@ -116,38 +113,51 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="2" style="1" width="9.142307692307693"/>
+    <col min="1" max="1" style="1" width="12.142127403846155" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" style="1" width="9.142307692307693"/>
     <col min="3" max="3" style="1" width="16.71" customWidth="1"/>
     <col min="4" max="16384" style="1" width="9.142307692307693"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>pkg_name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>pkg_code</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>pkg_description</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>pkg_price</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>pkg_coef</t>
+        </is>
+      </c>
+      <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>pkg_code</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>pkg_description</t>
-        </is>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="inlineStr">
         <is>
           <t>Sobre</t>
@@ -158,11 +168,17 @@
           <t>SB</t>
         </is>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="D2">
+        <v>120</v>
+      </c>
+      <c r="E2">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="inlineStr">
         <is>
           <t>Caja chica</t>
@@ -173,11 +189,17 @@
           <t>CC</t>
         </is>
       </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="D3">
+        <v>240</v>
+      </c>
+      <c r="E3">
+        <v>0.25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="inlineStr">
         <is>
           <t>Caja mediana</t>
@@ -188,11 +210,17 @@
           <t>CM</t>
         </is>
       </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="D4">
+        <v>280</v>
+      </c>
+      <c r="E4">
+        <v>0.25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="inlineStr">
         <is>
           <t>Caja grande</t>
@@ -203,11 +231,17 @@
           <t>CG</t>
         </is>
       </c>
-      <c r="D5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="D5">
+        <v>320</v>
+      </c>
+      <c r="E5">
+        <v>0.25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="inlineStr">
         <is>
           <t>Pallet</t>
@@ -218,8 +252,14 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="D6" t="s">
-        <v>2</v>
+      <c r="D6">
+        <v>1500</v>
+      </c>
+      <c r="E6">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -264,7 +304,7 @@
         </is>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -274,7 +314,7 @@
         </is>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -284,7 +324,7 @@
         </is>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -294,7 +334,7 @@
         </is>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -304,7 +344,7 @@
         </is>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -314,7 +354,7 @@
         </is>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -324,7 +364,7 @@
         </is>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -334,7 +374,7 @@
         </is>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -344,7 +384,7 @@
         </is>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -390,10 +430,10 @@
         </is>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -411,7 +451,7 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -429,7 +469,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -447,7 +487,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -465,7 +505,7 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -485,18 +525,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0" tabSelected="1">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="16384" style="1" width="9.142307692307693"/>
+    <col min="1" max="2" style="1" width="9.142307692307693"/>
+    <col min="3" max="3" style="1" width="12.284975961538462" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" style="1" width="9.142307692307693"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="inlineStr">
         <is>
           <t>client_name</t>
@@ -508,13 +550,23 @@
         </is>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>cust_rule</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>price_disc</t>
+        </is>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="inlineStr">
         <is>
           <t>GoFriz</t>
@@ -528,11 +580,11 @@
       <c r="C2">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="inlineStr">
         <is>
           <t>PoPack</t>
@@ -546,11 +598,11 @@
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="inlineStr">
         <is>
           <t>DeliPack</t>
@@ -564,8 +616,8 @@
       <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
-        <v>2</v>
+      <c r="F4" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/TABLAS.xlsx
+++ b/TABLAS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion lastEdited="4" lowestEdited="4" rupBuild="3820"/>
   <workbookPr date1904="0"/>
   <bookViews>
-    <workbookView activeTab="3" windowWidth="17560" windowHeight="7490"/>
+    <workbookView activeTab="3" windowWidth="20280" windowHeight="9020"/>
   </bookViews>
   <sheets>
     <sheet name="utils_package" sheetId="1" r:id="rId1"/>
@@ -525,10 +525,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -580,6 +580,9 @@
       <c r="C2">
         <v>2</v>
       </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
         <v>1</v>
       </c>
@@ -598,6 +601,9 @@
       <c r="C3">
         <v>2</v>
       </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
       <c r="F3" t="s">
         <v>1</v>
       </c>
@@ -616,7 +622,52 @@
       <c r="C4">
         <v>2</v>
       </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
       <c r="F4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Newsport</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Chineko</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CK</t>
+        </is>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
         <v>1</v>
       </c>
     </row>

--- a/TABLAS.xlsx
+++ b/TABLAS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15060" windowHeight="12825" tabRatio="693" activeTab="1"/>
+    <workbookView windowWidth="30000" windowHeight="12465" tabRatio="693"/>
   </bookViews>
   <sheets>
     <sheet name="utils_client" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="74">
+  <si>
+    <t>id</t>
+  </si>
   <si>
     <t>client_name</t>
   </si>
@@ -53,6 +56,9 @@
     <t>created_at</t>
   </si>
   <si>
+    <t>90326daf-b771-4489-8ba8-40789b64d6c0</t>
+  </si>
+  <si>
     <t>GoFriz</t>
   </si>
   <si>
@@ -62,30 +68,51 @@
     <t>2020-04-28 15:36:38-03</t>
   </si>
   <si>
+    <t>54a3aa1e-7c52-4dcc-95e3-5b1d44d99066</t>
+  </si>
+  <si>
     <t>PoPack</t>
   </si>
   <si>
     <t>PP</t>
   </si>
   <si>
+    <t>253668e5-c6e9-41b4-8907-5fc13afc1164</t>
+  </si>
+  <si>
     <t>DeliPack</t>
   </si>
   <si>
     <t>DP</t>
   </si>
   <si>
+    <t>9c2c63bf-2778-4365-a254-0e8f95ae722d</t>
+  </si>
+  <si>
     <t>Newsport</t>
   </si>
   <si>
     <t>NS</t>
   </si>
   <si>
+    <t>4278fef8-f950-492d-8366-0c71ef5810ff</t>
+  </si>
+  <si>
     <t>Chineko</t>
   </si>
   <si>
     <t>CK</t>
   </si>
   <si>
+    <t>b06c1673-dba4-4c03-a47d-dec000a062e3</t>
+  </si>
+  <si>
+    <t>Libertad</t>
+  </si>
+  <si>
+    <t>LB</t>
+  </si>
+  <si>
     <t>pkg_name</t>
   </si>
   <si>
@@ -188,22 +215,34 @@
     <t>prov_code</t>
   </si>
   <si>
+    <t>4fd1d932-f86a-456b-9f39-f9919ad22040</t>
+  </si>
+  <si>
     <t>Pack GO</t>
   </si>
   <si>
     <t>PG</t>
   </si>
   <si>
+    <t>b3265ad1-b80b-4efc-8355-30b3599267bd</t>
+  </si>
+  <si>
     <t>Provinter</t>
   </si>
   <si>
     <t>PV</t>
   </si>
   <si>
+    <t>ef85aae7-cdeb-4807-8033-3a37f7ff25c5</t>
+  </si>
+  <si>
     <t>Nevisca</t>
   </si>
   <si>
     <t>NV</t>
+  </si>
+  <si>
+    <t>7483f54c-000f-4c5b-b6a1-129bb1aeea4b</t>
   </si>
   <si>
     <t>Credifin</t>
@@ -218,9 +257,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -237,13 +276,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -252,6 +284,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -260,8 +299,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,8 +358,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,6 +389,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -298,28 +419,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -327,66 +426,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -403,49 +442,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,127 +574,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,15 +654,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -635,6 +665,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -654,17 +699,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -677,164 +727,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -846,7 +885,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1168,25 +1207,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="11.7142857142857" style="1" customWidth="true"/>
-    <col min="2" max="2" width="11.1428571428571" style="1" customWidth="true"/>
-    <col min="3" max="3" width="13.5714285714286" style="1" customWidth="true"/>
-    <col min="4" max="4" width="9.14285714285714" style="1" customWidth="true"/>
-    <col min="5" max="7" width="10" style="1" customWidth="true"/>
-    <col min="8" max="8" width="22.4285714285714" style="1" customWidth="true"/>
-    <col min="9" max="16384" width="9.14285714285714" style="1"/>
+    <col min="1" max="1" width="39.1428571428571" style="1" customWidth="true"/>
+    <col min="2" max="2" width="11.7142857142857" style="1" customWidth="true"/>
+    <col min="3" max="3" width="11.1428571428571" style="1" customWidth="true"/>
+    <col min="4" max="4" width="13.5714285714286" style="1" customWidth="true"/>
+    <col min="5" max="5" width="9.14285714285714" style="1" customWidth="true"/>
+    <col min="6" max="8" width="10" style="1" customWidth="true"/>
+    <col min="9" max="9" width="22.4285714285714" style="1" customWidth="true"/>
+    <col min="10" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1210,135 +1250,182 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
+    </row>
+    <row r="2" ht="13.5" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="3">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="2" t="s">
-        <v>11</v>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" ht="13.5" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="3">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="3">
         <v>1</v>
       </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
-        <v>13</v>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="13.5" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="3">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="3">
         <v>1</v>
       </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="2" t="s">
-        <v>15</v>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" ht="13.5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="3">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="2" t="s">
-        <v>17</v>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" ht="13.5" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="3">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="3">
         <v>1</v>
       </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>10</v>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" ht="13.5" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1354,8 +1441,8 @@
   <sheetPr/>
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="6"/>
@@ -1371,77 +1458,77 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3">
-        <v>0</v>
-      </c>
-      <c r="J2" s="3">
+        <v>39</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
         <v>0.1</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -1461,139 +1548,139 @@
       <c r="I3" s="1">
         <v>0</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="2">
         <v>0.25</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0</v>
-      </c>
-      <c r="J4" s="3">
+        <v>43</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
         <v>0.8</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0</v>
-      </c>
-      <c r="J5" s="3">
+        <v>45</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
         <v>0.25</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0</v>
-      </c>
-      <c r="J6" s="3">
+        <v>47</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
         <v>0.25</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3">
+        <v>49</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
         <v>0.25</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1623,77 +1710,77 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1707,89 +1794,105 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="10.8571428571429" style="1" customWidth="true"/>
-    <col min="2" max="2" width="10.1428571428571" style="1" customWidth="true"/>
-    <col min="3" max="3" width="13.5714285714286" style="1" customWidth="true"/>
-    <col min="4" max="4" width="22.4285714285714" style="1" customWidth="true"/>
-    <col min="5" max="16384" width="9.14285714285714" style="1"/>
+    <col min="1" max="1" width="38.5714285714286" style="1" customWidth="true"/>
+    <col min="2" max="2" width="10.8571428571429" style="1" customWidth="true"/>
+    <col min="3" max="3" width="10.1428571428571" style="1" customWidth="true"/>
+    <col min="4" max="4" width="13.5714285714286" style="1" customWidth="true"/>
+    <col min="5" max="5" width="22.4285714285714" style="1" customWidth="true"/>
+    <col min="6" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>51</v>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>53</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" ht="13.5" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="3">
+        <v>63</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>55</v>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" ht="13.5" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="13.5" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="3">
+        <v>69</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="3">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
-        <v>59</v>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" ht="13.5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="3">
+        <v>72</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
